--- a/20171006_現状_手話音素_片手繰り返し伸び縮み無し.xlsx
+++ b/20171006_現状_手話音素_片手繰り返し伸び縮み無し.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6458" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6459" uniqueCount="952">
   <si>
     <t>グロス</t>
   </si>
@@ -4106,6 +4106,10 @@
   </si>
   <si>
     <t>誤動作数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5069,7 +5073,7 @@
   <dimension ref="A1:AG350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5185,6 +5189,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>951</v>
+      </c>
       <c r="D2" s="11" t="s">
         <v>938</v>
       </c>

--- a/20171006_現状_手話音素_片手繰り返し伸び縮み無し.xlsx
+++ b/20171006_現状_手話音素_片手繰り返し伸び縮み無し.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6459" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6458" uniqueCount="951">
   <si>
     <t>グロス</t>
   </si>
@@ -4106,10 +4106,6 @@
   </si>
   <si>
     <t>誤動作数</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5073,7 +5069,7 @@
   <dimension ref="A1:AG350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5189,9 +5185,6 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>951</v>
-      </c>
       <c r="D2" s="11" t="s">
         <v>938</v>
       </c>
